--- a/CSOF5303 Proyecto 3/DocumentoFinal/1205Diagramas.xlsx
+++ b/CSOF5303 Proyecto 3/DocumentoFinal/1205Diagramas.xlsx
@@ -8,11 +8,88 @@
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="4" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+  <si>
+    <t>Seguimiento</t>
+  </si>
+  <si>
+    <t>Producto</t>
+  </si>
+  <si>
+    <t>Portal</t>
+  </si>
+  <si>
+    <t>OSB</t>
+  </si>
+  <si>
+    <t>Legado</t>
+  </si>
+  <si>
+    <t>Proceso</t>
+  </si>
+  <si>
+    <t>CRM</t>
+  </si>
+  <si>
+    <t>BPEL</t>
+  </si>
+  <si>
+    <t>Real</t>
+  </si>
+  <si>
+    <t>Planeado</t>
+  </si>
+  <si>
+    <t>Presentación</t>
+  </si>
+  <si>
+    <t>Planeación</t>
+  </si>
+  <si>
+    <t>Impl</t>
+  </si>
+  <si>
+    <t>Docu</t>
+  </si>
+  <si>
+    <t>Doc</t>
+  </si>
+  <si>
+    <t>Postmortem</t>
+  </si>
+  <si>
+    <t>Pruebas</t>
+  </si>
+  <si>
+    <t>Diseño</t>
+  </si>
+  <si>
+    <t>Requisitos</t>
+  </si>
+  <si>
+    <t>Plan</t>
+  </si>
+  <si>
+    <t>Estrategia</t>
+  </si>
+  <si>
+    <t>Lanzamiento</t>
+  </si>
+  <si>
+    <t>Inicio</t>
+  </si>
+  <si>
+    <t>Otros</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -60,6 +137,722 @@
     </mruColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="es-CO"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja2!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Planeado</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja2!$B$2:$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Otros</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Inicio</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Lanzamiento</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Seguimiento</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Estrategia</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Plan</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Requisitos</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Diseño</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Impl</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Pruebas</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Postmortem</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Doc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja2!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>67.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>117.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja2!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Real</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja2!$B$2:$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Otros</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Inicio</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Lanzamiento</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Seguimiento</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Estrategia</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Plan</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Requisitos</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Diseño</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Impl</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Pruebas</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Postmortem</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Doc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja2!$D$2:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.83</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.33</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72.83</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:axId val="84810368"/>
+        <c:axId val="84816256"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="84810368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="84816256"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="84816256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="84810368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr b="1"/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="es-CO"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja2!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Planeado</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja2!$B$34:$B$39</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Docu</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Impl</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Legado</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>OSB</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Planeación</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Presentación</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja2!$C$34:$C$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja2!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Real</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja2!$B$34:$B$39</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Docu</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Impl</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Legado</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>OSB</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Planeación</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Presentación</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja2!$D$34:$D$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>61.27</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.6199999999999992</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.07</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.51</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>115.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:axId val="84841600"/>
+        <c:axId val="84843136"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="84841600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="84843136"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="84843136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="84841600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr b="1"/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="es-CO"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja2!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Planeado</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja2!$B$67:$B$74</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>BPEL</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CRM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Proceso</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Legado</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>OSB</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Portal</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Producto</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Seguimiento</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja2!$C$67:$C$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja2!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Real</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja2!$B$67:$B$74</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>BPEL</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CRM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Proceso</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Legado</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>OSB</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Portal</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Producto</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Seguimiento</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja2!$D$67:$D$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>47.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50.42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:axId val="84954496"/>
+        <c:axId val="84960384"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="84954496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="84960384"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="84960384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="84954496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr b="1"/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7946,6 +8739,101 @@
         </xdr:pic>
       </xdr:grpSp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="1 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="2 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="3 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -8238,7 +9126,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
@@ -8251,13 +9139,327 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B1:D74"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A41" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="2:4">
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4">
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4">
+        <v>27</v>
+      </c>
+      <c r="D4">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>67.2</v>
+      </c>
+      <c r="D5">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>25</v>
+      </c>
+      <c r="D6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7">
+        <v>12.5</v>
+      </c>
+      <c r="D7">
+        <v>12.83</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>32</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>8.33</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>117.5</v>
+      </c>
+      <c r="D10">
+        <v>72.83</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>27</v>
+      </c>
+      <c r="D11">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>15</v>
+      </c>
+      <c r="D12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34">
+        <v>172</v>
+      </c>
+      <c r="D34">
+        <v>61.27</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35">
+        <v>80</v>
+      </c>
+      <c r="D35">
+        <v>8.6199999999999992</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36">
+        <v>38</v>
+      </c>
+      <c r="D36">
+        <v>17.07</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37">
+        <v>62</v>
+      </c>
+      <c r="D37">
+        <v>32.51</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38">
+        <v>94</v>
+      </c>
+      <c r="D38">
+        <v>115.8</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39">
+        <v>22</v>
+      </c>
+      <c r="D39">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4">
+      <c r="C66" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4">
+      <c r="B67" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67">
+        <v>50</v>
+      </c>
+      <c r="D67">
+        <v>47.8</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4">
+      <c r="B68" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68">
+        <v>45</v>
+      </c>
+      <c r="D68">
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4">
+      <c r="B69" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69">
+        <v>53</v>
+      </c>
+      <c r="D69">
+        <v>50.42</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4">
+      <c r="B70" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70">
+        <v>22</v>
+      </c>
+      <c r="D70">
+        <v>11.35</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4">
+      <c r="B71" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71">
+        <v>15</v>
+      </c>
+      <c r="D71">
+        <v>15.13</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4">
+      <c r="B72" t="s">
+        <v>2</v>
+      </c>
+      <c r="C72">
+        <v>10</v>
+      </c>
+      <c r="D72">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4">
+      <c r="B73" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73">
+        <v>32</v>
+      </c>
+      <c r="D73">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4">
+      <c r="B74" t="s">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>96</v>
+      </c>
+      <c r="D74">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/CSOF5303 Proyecto 3/DocumentoFinal/1205Diagramas.xlsx
+++ b/CSOF5303 Proyecto 3/DocumentoFinal/1205Diagramas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="18915" windowHeight="8475"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="18915" windowHeight="8475" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -94,6 +94,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00;[Red]0.00"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -123,8 +126,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -359,24 +363,24 @@
         <c:dLbls>
           <c:showVal val="1"/>
         </c:dLbls>
-        <c:axId val="84810368"/>
-        <c:axId val="84816256"/>
+        <c:axId val="55130752"/>
+        <c:axId val="55202176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="84810368"/>
+        <c:axId val="55130752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84816256"/>
+        <c:crossAx val="55202176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84816256"/>
+        <c:axId val="55202176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -384,213 +388,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84810368"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr b="1"/>
-      </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="es-CO"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Hoja2!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Planeado</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>Hoja2!$B$34:$B$39</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Docu</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Impl</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Legado</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>OSB</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Planeación</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Presentación</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Hoja2!$C$34:$C$39</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>172</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>22</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Hoja2!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Real</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>Hoja2!$B$34:$B$39</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Docu</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Impl</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Legado</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>OSB</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Planeación</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Presentación</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Hoja2!$D$34:$D$39</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>61.27</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.6199999999999992</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>17.07</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>32.51</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>115.8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showVal val="1"/>
-        </c:dLbls>
-        <c:axId val="84841600"/>
-        <c:axId val="84843136"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="84841600"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84843136"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="84843136"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84841600"/>
+        <c:crossAx val="55130752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -618,13 +416,13 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="es-CO"/>
   <c:chart>
@@ -649,65 +447,53 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja2!$B$67:$B$74</c:f>
+              <c:f>Hoja2!$B$34:$B$39</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>BPEL</c:v>
+                  <c:v>Docu</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>CRM</c:v>
+                  <c:v>Impl</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Proceso</c:v>
+                  <c:v>Legado</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Legado</c:v>
+                  <c:v>OSB</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>OSB</c:v>
+                  <c:v>Planeación</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Portal</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Producto</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Seguimiento</c:v>
+                  <c:v>Presentación</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja2!$C$67:$C$74</c:f>
+              <c:f>Hoja2!$C$34:$C$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>53</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>96</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -729,65 +515,53 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja2!$B$67:$B$74</c:f>
+              <c:f>Hoja2!$B$34:$B$39</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>BPEL</c:v>
+                  <c:v>Docu</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>CRM</c:v>
+                  <c:v>Impl</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Proceso</c:v>
+                  <c:v>Legado</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Legado</c:v>
+                  <c:v>OSB</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>OSB</c:v>
+                  <c:v>Planeación</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Portal</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Producto</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Seguimiento</c:v>
+                  <c:v>Presentación</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja2!$D$67:$D$74</c:f>
+              <c:f>Hoja2!$D$34:$D$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>47.8</c:v>
+                  <c:v>61.27</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31.5</c:v>
+                  <c:v>8.6199999999999992</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50.42</c:v>
+                  <c:v>17.07</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.35</c:v>
+                  <c:v>32.51</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.13</c:v>
+                  <c:v>115.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>96</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -796,24 +570,24 @@
         <c:dLbls>
           <c:showVal val="1"/>
         </c:dLbls>
-        <c:axId val="84954496"/>
-        <c:axId val="84960384"/>
+        <c:axId val="57721984"/>
+        <c:axId val="57723520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="84954496"/>
+        <c:axId val="57721984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84960384"/>
+        <c:crossAx val="57723520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84960384"/>
+        <c:axId val="57723520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -821,7 +595,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84954496"/>
+        <c:crossAx val="57721984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -849,7 +623,238 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="es-CO"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja2!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Planeado</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja2!$B$67:$B$74</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>BPEL</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CRM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Proceso</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Legado</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>OSB</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Portal</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Producto</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Seguimiento</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja2!$C$67:$C$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja2!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Real</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja2!$B$67:$B$74</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>BPEL</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CRM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Proceso</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Legado</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>OSB</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Portal</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Producto</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Seguimiento</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja2!$D$67:$D$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>47.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50.42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:axId val="57982336"/>
+        <c:axId val="58000512"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="57982336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="58000512"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="58000512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="57982336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr b="1"/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9126,8 +9131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+    <sheetView topLeftCell="A87" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B120" sqref="B120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -9139,10 +9144,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:D74"/>
+  <dimension ref="B1:D76"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -9287,6 +9292,23 @@
         <v>13</v>
       </c>
     </row>
+    <row r="14" spans="2:4">
+      <c r="C14" s="1">
+        <f>SUM(C2:C13)</f>
+        <v>364.2</v>
+      </c>
+      <c r="D14" s="1">
+        <f>SUM(D2:D13)</f>
+        <v>273.99</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1">
+        <f>100*(C14-D14)/C14</f>
+        <v>24.76935749588138</v>
+      </c>
+    </row>
     <row r="33" spans="2:4">
       <c r="C33" t="s">
         <v>9</v>
@@ -9359,6 +9381,22 @@
       </c>
       <c r="D39">
         <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="C40">
+        <f>SUM(C34:C39)</f>
+        <v>468</v>
+      </c>
+      <c r="D40">
+        <f>SUM(D34:D39)</f>
+        <v>265.27</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="D41" s="1">
+        <f>100*(C40-D40)/C40</f>
+        <v>43.318376068376068</v>
       </c>
     </row>
     <row r="66" spans="2:4">
@@ -9457,9 +9495,26 @@
         <v>96</v>
       </c>
     </row>
+    <row r="75" spans="2:4">
+      <c r="C75">
+        <f>SUM(C67:C74)</f>
+        <v>323</v>
+      </c>
+      <c r="D75">
+        <f>SUM(D67:D74)</f>
+        <v>279.2</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4">
+      <c r="D76" s="1">
+        <f>100*(C75-D75)/C75</f>
+        <v>13.560371517027866</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
